--- a/template/Customer_Template.xlsx
+++ b/template/Customer_Template.xlsx
@@ -1,165 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cirs/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/speedjin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2A66B4-F519-E242-A977-70982B16FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6391B0D7-D41A-444C-B599-2454C517CB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{B6C85693-B7D9-C44E-B152-08948C8E358C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{9341FD95-CFC6-421C-9B6B-E00C8B5A4387}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="customermaster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Customer Code </t>
-  </si>
-  <si>
-    <t>Other Code (AutoCount etc.)</t>
-  </si>
-  <si>
-    <t>Under Dealer</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>Address 3</t>
-  </si>
-  <si>
-    <t>Address 4</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>PIC</t>
-  </si>
-  <si>
-    <t>PIC Contact</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>MAP URL</t>
-  </si>
-  <si>
-    <t>Branch Code</t>
-  </si>
-  <si>
-    <t>Branch Name</t>
-  </si>
-  <si>
-    <t>Branch Address 1</t>
-  </si>
-  <si>
-    <t>Branch Address 2</t>
-  </si>
-  <si>
-    <t>Branch Address 3</t>
-  </si>
-  <si>
-    <t>Branch Address 4</t>
-  </si>
-  <si>
-    <t>Branch Phone</t>
-  </si>
-  <si>
-    <t>Branch PIC</t>
-  </si>
-  <si>
-    <t>Branch PIC Contact</t>
-  </si>
-  <si>
-    <t>Branch Email</t>
-  </si>
-  <si>
-    <t>Branch MAP URL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>RegNo</t>
+  </si>
+  <si>
+    <t>Addr1</t>
+  </si>
+  <si>
+    <t>Addr2</t>
+  </si>
+  <si>
+    <t>Addr3</t>
+  </si>
+  <si>
+    <t>Addr4</t>
+  </si>
+  <si>
+    <t>Tel</t>
+  </si>
+  <si>
+    <t>Fax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -167,39 +78,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,39 +112,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -312,7 +196,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -364,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,6 +307,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -431,13 +322,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -502,121 +386,67 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A840EA-E3EF-8F41-9FA7-7F8EBF11CEB9}">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7AE52E-5E3F-4816-BCAD-C318F36103B6}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/template/Customer_Template.xlsx
+++ b/template/Customer_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/speedjin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihbi\xampp\htdocs\synctronix\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6391B0D7-D41A-444C-B599-2454C517CB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099BC7A-24F0-42B0-9CAC-668E3D7B2BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{9341FD95-CFC6-421C-9B6B-E00C8B5A4387}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9341FD95-CFC6-421C-9B6B-E00C8B5A4387}"/>
   </bookViews>
   <sheets>
     <sheet name="customermaster" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Code</t>
   </si>
@@ -40,13 +40,22 @@
     <t>Addr3</t>
   </si>
   <si>
-    <t>Addr4</t>
-  </si>
-  <si>
     <t>Tel</t>
   </si>
   <si>
     <t>Fax</t>
+  </si>
+  <si>
+    <t>New Reg No</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Tin No</t>
+  </si>
+  <si>
+    <t>IC No</t>
   </si>
 </sst>
 </file>
@@ -398,26 +407,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7AE52E-5E3F-4816-BCAD-C318F36103B6}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,22 +440,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
